--- a/data/trans_bre/P16A10-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16A10-Estudios-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-0.2631720416086503</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>1.289508556642441</v>
+        <v>1.289508556642438</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.1057931847557117</v>
@@ -649,7 +649,7 @@
         <v>-0.02041721904486806</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.08829179800071499</v>
+        <v>0.08829179800071478</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.840453645131003</v>
+        <v>-4.111898644350111</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-5.086900950617041</v>
+        <v>-5.25039877749776</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.528780238087623</v>
+        <v>-3.38450085008152</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.220246501349835</v>
+        <v>-2.016299652893003</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.2812418198409786</v>
+        <v>-0.2958703447957581</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.3458691424075186</v>
+        <v>-0.3567451091482557</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.2393655148683131</v>
+        <v>-0.2343837385828655</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.1267782423512195</v>
+        <v>-0.1190141252752654</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.28563693288712</v>
+        <v>1.373654407899795</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4682979703510985</v>
+        <v>0.6150277501543334</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.271129918148821</v>
+        <v>2.932689512746043</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.406317982695532</v>
+        <v>4.253512208722629</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.1210676140179142</v>
+        <v>0.1236620630059289</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.04360547450918432</v>
+        <v>0.05590896388103753</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2816612472373604</v>
+        <v>0.27082498742737</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.3544586832349099</v>
+        <v>0.3420035618595645</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.572934271351803</v>
+        <v>-1.621072199177502</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-1.979999257552586</v>
+        <v>-1.9134558648539</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-3.061694191741703</v>
+        <v>-3.008650193129867</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-2.480900692476071</v>
+        <v>-2.508618659756519</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.551804537415579</v>
+        <v>-0.5615065632185275</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.6773232423526301</v>
+        <v>-0.6743452089957505</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.6048286788278749</v>
+        <v>-0.6067187351018436</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.5319099128400709</v>
+        <v>-0.5389673227350618</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.319104558606315</v>
+        <v>0.2790734796022311</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-0.1415650518703644</v>
+        <v>-0.1283659391625793</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-0.6824255379942831</v>
+        <v>-0.6978290893558039</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-0.5501371373713013</v>
+        <v>-0.5801207039221653</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1786121912672691</v>
+        <v>0.1881477749918771</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.0459133425993622</v>
+        <v>-0.03312849479721219</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.1541389443437814</v>
+        <v>-0.1722883475300686</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.1592098501558475</v>
+        <v>-0.156248971028058</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-0.4537598370932115</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-2.250929321853074</v>
+        <v>-2.250929321853072</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.2057143698862972</v>
@@ -849,7 +849,7 @@
         <v>-0.1442963875913303</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.5356528028851815</v>
+        <v>-0.5356528028851812</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.240370246413285</v>
+        <v>-2.265995134655916</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.144452381687957</v>
+        <v>-3.297513891146601</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.566264470547591</v>
+        <v>-2.635991466197625</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.757361287477096</v>
+        <v>-3.80370045751795</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.758991003207185</v>
+        <v>-0.7797434553889117</v>
       </c>
       <c r="H11" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.5923526238121646</v>
+        <v>-0.6144923845312178</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.7210665745319267</v>
+        <v>-0.7171244570033052</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.368773088621678</v>
+        <v>1.389232624922489</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-0.05744516663442024</v>
+        <v>-0.1474247217469958</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.719711386371188</v>
+        <v>1.663765333406747</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-0.6726344771092919</v>
+        <v>-0.6550523149873589</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.174983782989167</v>
+        <v>1.54430912730457</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3821059763564826</v>
+        <v>0.3863980565021513</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9452331889654254</v>
+        <v>0.8217807880386735</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>-0.1884066695919362</v>
+        <v>-0.1735054899613083</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-0.6463943525011575</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-0.4644222477333232</v>
+        <v>-0.4644222477333239</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.02173103653289409</v>
@@ -949,7 +949,7 @@
         <v>-0.1074973678117754</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.08003713422133454</v>
+        <v>-0.08003713422133467</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.292465212399342</v>
+        <v>-1.152316306137143</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-1.596593169383842</v>
+        <v>-1.514940949296935</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-1.794976940795541</v>
+        <v>-1.716416995592599</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-1.381375725032952</v>
+        <v>-1.333174778426094</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2117236443949928</v>
+        <v>-0.1952455834398235</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2694964530074145</v>
+        <v>-0.2561485040786931</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2745016237174752</v>
+        <v>-0.2642146760683342</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2178126679881405</v>
+        <v>-0.2145586796204756</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9639823668222025</v>
+        <v>1.028164217646398</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.6411756306549302</v>
+        <v>0.5484298270370325</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4961482546247488</v>
+        <v>0.5445826033387842</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3800585265252642</v>
+        <v>0.5565046636942684</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2079160524783315</v>
+        <v>0.2117839691920952</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1433810848544561</v>
+        <v>0.1210161751971667</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.09242632934665551</v>
+        <v>0.1048485289637954</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.07306919926423248</v>
+        <v>0.102615352362347</v>
       </c>
     </row>
     <row r="16">
